--- a/Реестр.xlsx
+++ b/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -164,6 +164,45 @@
   </si>
   <si>
     <t>2198-0275-02</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>РФ1-19</t>
+  </si>
+  <si>
+    <t>АньшаковА.Е.</t>
+  </si>
+  <si>
+    <t>5702,99</t>
+  </si>
+  <si>
+    <t>122,25</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>РФ1-15</t>
+  </si>
+  <si>
+    <t>2439,5</t>
+  </si>
+  <si>
+    <t>54,54</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>РФ1-17</t>
+  </si>
+  <si>
+    <t>Передан в архив</t>
+  </si>
+  <si>
+    <t>2198-2121-02</t>
   </si>
 </sst>
 </file>
@@ -588,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -1292,6 +1331,734 @@
       </c>
       <c r="H27" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Реестр.xlsx
+++ b/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -203,6 +203,24 @@
   </si>
   <si>
     <t>2198-2121-02</t>
+  </si>
+  <si>
+    <t>ШеффингА.А.</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>РФ1-14</t>
+  </si>
+  <si>
+    <t>ÎÃ1-10</t>
+  </si>
+  <si>
+    <t>ØåôôиíãÀ.À.</t>
+  </si>
+  <si>
+    <t>2198-2312-02</t>
   </si>
 </sst>
 </file>
@@ -627,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -2059,6 +2077,786 @@
       </c>
       <c r="H55" s="5" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Реестр.xlsx
+++ b/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>2198-2312-02</t>
+  </si>
+  <si>
+    <t>2198-1212-02</t>
   </si>
 </sst>
 </file>
@@ -645,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -2857,6 +2860,864 @@
       </c>
       <c r="H85" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Реестр.xlsx
+++ b/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -140,6 +140,63 @@
   </si>
   <si>
     <t>Передан в ПДО</t>
+  </si>
+  <si>
+    <t>1852(24)</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>CP-137</t>
+  </si>
+  <si>
+    <t>КирилловаТ.В.</t>
+  </si>
+  <si>
+    <t>2806,8</t>
+  </si>
+  <si>
+    <t>131,63</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>N-3</t>
+  </si>
+  <si>
+    <t>ШипуноваЕ.А.</t>
+  </si>
+  <si>
+    <t>1435,01</t>
+  </si>
+  <si>
+    <t>36,07</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>N-4</t>
+  </si>
+  <si>
+    <t>1415,01</t>
+  </si>
+  <si>
+    <t>34,8</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>B-133</t>
+  </si>
+  <si>
+    <t>2072,24</t>
+  </si>
+  <si>
+    <t>73,05</t>
   </si>
 </sst>
 </file>
@@ -564,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -576,7 +633,7 @@
     <col min="2" max="2" width="25.9693341936384" customWidth="1" style="2"/>
     <col min="3" max="3" width="9.140625" customWidth="1" style="2"/>
     <col min="4" max="4" width="10.8688910348075" customWidth="1" style="2"/>
-    <col min="5" max="5" width="14.0004937308175" customWidth="1" style="2"/>
+    <col min="5" max="5" width="14.7718854631696" customWidth="1" style="2"/>
     <col min="6" max="6" width="9.140625" customWidth="1" style="2"/>
     <col min="7" max="7" width="14.9652437482561" customWidth="1" style="2"/>
     <col min="8" max="8" width="31.6504167829241" customWidth="1" style="2"/>
@@ -1138,6 +1195,292 @@
       </c>
       <c r="H22" s="5" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
